--- a/rawfiles/scopus_financiadores.xlsx
+++ b/rawfiles/scopus_financiadores.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t xml:space="preserve">fund_sponsor</t>
   </si>
@@ -23,25 +23,37 @@
     <t xml:space="preserve">Coordenação de Aperfeiçoamento de Pessoal de Nível Superior</t>
   </si>
   <si>
+    <t xml:space="preserve">National Science Foundation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Conselho Nacional de Desenvolvimento Científico e Tecnológico</t>
   </si>
   <si>
-    <t xml:space="preserve">National Science Foundation</t>
+    <t xml:space="preserve">Fundação de Amparo à Pesquisa do Estado de São Paulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fundação de Amparo à Pesquisa do Estado do Amazonas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural Sciences and Engineering Research Council of Canada</t>
   </si>
   <si>
     <t xml:space="preserve">Air Force Office of Scientific Research</t>
   </si>
   <si>
-    <t xml:space="preserve">Fundação de Amparo à Pesquisa do Estado do Amazonas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natural Sciences and Engineering Research Council of Canada</t>
-  </si>
-  <si>
     <t xml:space="preserve">Financiadora de Estudos e Projetos</t>
   </si>
   <si>
-    <t xml:space="preserve">Fundação de Amparo à Pesquisa do Estado de São Paulo</t>
+    <t xml:space="preserve">National Natural Science Foundation of China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pontificia Universidad Católica del Perú</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russian Foundation for Basic Research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Fish and Wildlife Service</t>
   </si>
   <si>
     <t xml:space="preserve">Wildlife Conservation Society</t>
@@ -56,18 +68,45 @@
     <t xml:space="preserve">American Physiological Society</t>
   </si>
   <si>
+    <t xml:space="preserve">Asociación para la Conservación de la Cuenca Amazónica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australian Research Council</t>
+  </si>
+  <si>
+    <t xml:space="preserve">British Council</t>
+  </si>
+  <si>
     <t xml:space="preserve">Central University of Gujarat</t>
   </si>
   <si>
+    <t xml:space="preserve">Chongqing University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connecticut State Emergency Response Commission</t>
+  </si>
+  <si>
     <t xml:space="preserve">Consejo Nacional de Ciencia, Tecnología e Innovación Tecnológica</t>
   </si>
   <si>
+    <t xml:space="preserve">Cure For Life Foundation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyprus University of Technology</t>
+  </si>
+  <si>
     <t xml:space="preserve">Defense Advanced Research Projects Agency</t>
   </si>
   <si>
+    <t xml:space="preserve">Deutsche Forschungsgemeinschaft</t>
+  </si>
+  <si>
     <t xml:space="preserve">Deutscher Akademischer Austauschdienst</t>
   </si>
   <si>
+    <t xml:space="preserve">Deutscher Akademischer Austauschdienst France</t>
+  </si>
+  <si>
     <t xml:space="preserve">Empresa Brasileira de Pesquisa Agropecuária</t>
   </si>
   <si>
@@ -77,21 +116,57 @@
     <t xml:space="preserve">Engineering and Physical Sciences Research Council</t>
   </si>
   <si>
+    <t xml:space="preserve">Florida Agricultural Experiment Station</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ford Foundation</t>
   </si>
   <si>
+    <t xml:space="preserve">Government of Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2020 Marie Skłodowska-Curie Actions</t>
+  </si>
+  <si>
     <t xml:space="preserve">Horizon 2020 Framework Programme</t>
   </si>
   <si>
     <t xml:space="preserve">International Foundation for Science</t>
   </si>
   <si>
+    <t xml:space="preserve">Ministerstvo Školství, Mládeže a Tělovýchovy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministry of Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Blood Foundation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Geographic Society</t>
+  </si>
+  <si>
     <t xml:space="preserve">National Heart, Lung, and Blood Institute</t>
   </si>
   <si>
+    <t xml:space="preserve">National Institute of Diabetes and Digestive and Kidney Diseases</t>
+  </si>
+  <si>
     <t xml:space="preserve">National Key Research and Development Program of China</t>
   </si>
   <si>
+    <t xml:space="preserve">Natural Environment Research Council</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural Science Foundation of Zhejiang Province</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Jersey Department of Environmental Protection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norges Forskningsråd</t>
+  </si>
+  <si>
     <t xml:space="preserve">Smithsonian Institution</t>
   </si>
   <si>
@@ -101,13 +176,25 @@
     <t xml:space="preserve">The World Academy of Sciences</t>
   </si>
   <si>
+    <t xml:space="preserve">United States - Israel Binational Agricultural Research and Development Fund</t>
+  </si>
+  <si>
     <t xml:space="preserve">Universal</t>
   </si>
   <si>
+    <t xml:space="preserve">Universidad Internacional de La Rioja</t>
+  </si>
+  <si>
     <t xml:space="preserve">Universidad Nacional de Salta</t>
   </si>
   <si>
+    <t xml:space="preserve">Universidad Nacional Mayor de San Marcos</t>
+  </si>
+  <si>
     <t xml:space="preserve">Universidade de Brasília</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universidade Federal do Acre</t>
   </si>
   <si>
     <t xml:space="preserve">Universidade Federal Rural da Amazônia</t>
@@ -457,72 +544,70 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A2"/>
       <c r="B2" t="n">
-        <v>23</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
         <v>2</v>
@@ -530,47 +615,47 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -578,7 +663,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -586,7 +671,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
@@ -594,7 +679,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -602,7 +687,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
@@ -610,7 +695,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
@@ -618,7 +703,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
@@ -626,7 +711,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
@@ -634,7 +719,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
@@ -642,7 +727,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -650,7 +735,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -658,7 +743,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -666,7 +751,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
@@ -674,7 +759,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -682,7 +767,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
@@ -690,7 +775,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
@@ -698,7 +783,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -706,7 +791,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
@@ -714,9 +799,249 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
         <v>1</v>
       </c>
     </row>
